--- a/Arquivos_testes/Planilha.xlsx
+++ b/Arquivos_testes/Planilha.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="24">
   <si>
     <t>P1</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Grupo São Roque</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -774,10 +780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -929,6 +935,72 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>166287.78700000001</v>
+      </c>
+      <c r="C10">
+        <v>61790.766900000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>94315.114000000001</v>
+      </c>
+      <c r="C11">
+        <v>-72746.388099999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>-103727.342</v>
+      </c>
+      <c r="C12">
+        <v>-113672.0261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>-124895.77499999999</v>
+      </c>
+      <c r="C13">
+        <v>59438.7189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>18579.163</v>
+      </c>
+      <c r="C14">
+        <v>95660.259900000005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
